--- a/sex_after_layout.xlsx
+++ b/sex_after_layout.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9900" windowWidth="21720" xWindow="210" yWindow="450"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sex" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
-  <si>
-    <t>Females</t>
-  </si>
-  <si>
-    <t>Males</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>NAME</t>
   </si>
@@ -128,12 +122,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -216,19 +207,19 @@
         </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln cmpd="sng" algn="ctr" w="9525" cap="flat">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cmpd="sng" algn="ctr" w="25400" cap="flat">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln cmpd="sng" algn="ctr" w="38100" cap="flat">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -266,250 +257,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr enableFormatConditionsCalculation="0" filterMode="0">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" customHeight="1" defaultRowHeight="10" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="11.42578125" defaultRowHeight="9.949999999999999" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="4" width="9"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="4" width="4"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="4" width="4"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="9"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" style="3" width="4"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12" r="1" s="4" spans="1:11">
+    <row customHeight="1" ht="12" r="1" s="3" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
       <c r="G1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="10" r="2" s="4" spans="1:11"/>
-    <row customHeight="1" ht="12" r="3" s="4" spans="1:11">
-      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row customHeight="1" ht="12" r="2" s="3" spans="1:7">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12" r="4" s="4" spans="1:11">
-      <c r="A4" s="0" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="n">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12" r="3" s="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" t="n">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
         <v>14</v>
       </c>
     </row>
-    <row customHeight="1" ht="12" r="5" s="4" spans="1:11">
-      <c r="A5" s="0" t="s">
+    <row customHeight="1" ht="12" r="4" s="3" spans="1:7">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12" r="5" s="3" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" t="n">
+    </row>
+    <row customHeight="1" ht="12" r="6" s="3" spans="1:7">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row customHeight="1" ht="12" r="6" s="4" spans="1:11">
-      <c r="A6" s="0" t="s">
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12" r="7" s="3" spans="1:7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="n">
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12" r="8" s="3" spans="1:7">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12" r="7" s="4" spans="1:11">
-      <c r="A7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12" r="8" s="4" spans="1:11">
-      <c r="A8" s="0" t="s">
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="12" r="9" s="3" spans="1:7">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
         <v>15</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="n">
+    </row>
+    <row customHeight="1" ht="12" r="10" s="3" spans="1:7">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12" r="9" s="4" spans="1:11">
-      <c r="A9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="n">
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12" r="10" s="4" spans="1:11">
-      <c r="A10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="12" r="11" s="4" spans="1:11">
-      <c r="A11" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" t="n">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
         <v>15</v>
       </c>
     </row>
-    <row customHeight="1" ht="12" r="12" s="4" spans="1:11">
-      <c r="A12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="10" r="13" s="4" spans="1:11">
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <printOptions gridLines="0" headings="0" horizontalCentered="0" verticalCentered="0"/>
   <pageMargins bottom="0.5" footer="0" header="0" left="0.5" right="0.5" top="0.5"/>
-  <pageSetup fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" paperSize="1" scale="100" verticalDpi="300"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>